--- a/Capex/raw_data/RoughBook.xlsx
+++ b/Capex/raw_data/RoughBook.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimv1-my.sharepoint.com/personal/kalyan_iimv_ac_in/Documents/Python-Exercise-KK/Kalyan-Jupyter-Notebooks/Capex/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{27E2263D-B2F9-2642-90FA-5A37E3A102DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4694233-86EF-434B-8533-28F6966F3D43}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{27E2263D-B2F9-2642-90FA-5A37E3A102DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD44EC34-F76B-3247-9FBD-D505629A3A91}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14600" activeTab="1" xr2:uid="{59470965-B567-3444-8030-BF238CF640B5}"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14600" activeTab="2" xr2:uid="{59470965-B567-3444-8030-BF238CF640B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
     <sheet name="Full" sheetId="2" r:id="rId2"/>
+    <sheet name="Events" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="227">
   <si>
     <t>Non-financial</t>
   </si>
@@ -685,16 +686,55 @@
   </si>
   <si>
     <t>Ownership (All Owners) by State (India)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Project ABC</t>
+  </si>
+  <si>
+    <t>State Govt</t>
+  </si>
+  <si>
+    <t>Announced</t>
+  </si>
+  <si>
+    <t>Permission Receipt</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Project DEF</t>
+  </si>
+  <si>
+    <t>Pvt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -718,8 +758,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBDCED2-B1A1-2643-B089-01F928A957B9}">
   <dimension ref="A1:A212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2271,4 +2313,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71C9095-FDD9-FC4B-B3B2-DDFF918E0B5B}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Capex/raw_data/RoughBook.xlsx
+++ b/Capex/raw_data/RoughBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimv1-my.sharepoint.com/personal/kalyan_iimv_ac_in/Documents/Python-Exercise-KK/Kalyan-Jupyter-Notebooks/Capex/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{27E2263D-B2F9-2642-90FA-5A37E3A102DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD44EC34-F76B-3247-9FBD-D505629A3A91}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{27E2263D-B2F9-2642-90FA-5A37E3A102DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458FC4A0-79C5-8145-B1F7-3E712F055B3B}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14600" activeTab="2" xr2:uid="{59470965-B567-3444-8030-BF238CF640B5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="236">
   <si>
     <t>Non-financial</t>
   </si>
@@ -719,6 +719,33 @@
   </si>
   <si>
     <t>Pvt</t>
+  </si>
+  <si>
+    <t>sub_stage_id</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>stage_id</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -777,10 +804,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2317,15 +2340,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71C9095-FDD9-FC4B-B3B2-DDFF918E0B5B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -2333,13 +2361,22 @@
         <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>220</v>
       </c>
@@ -2349,11 +2386,20 @@
       <c r="C2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="2">
         <v>45056</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>220</v>
       </c>
@@ -2363,11 +2409,20 @@
       <c r="C3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="2">
         <v>45106</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>220</v>
       </c>
@@ -2377,11 +2432,20 @@
       <c r="C4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="2">
         <v>45156</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
@@ -2391,11 +2455,20 @@
       <c r="C5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="2">
         <v>45100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -2405,23 +2478,26 @@
       <c r="C6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="2">
         <v>45122</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45154</v>
-      </c>
+      <c r="F6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Capex/raw_data/RoughBook.xlsx
+++ b/Capex/raw_data/RoughBook.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimv1-my.sharepoint.com/personal/kalyan_iimv_ac_in/Documents/Python-Exercise-KK/Kalyan-Jupyter-Notebooks/Capex/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{27E2263D-B2F9-2642-90FA-5A37E3A102DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458FC4A0-79C5-8145-B1F7-3E712F055B3B}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{27E2263D-B2F9-2642-90FA-5A37E3A102DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0701A2D8-E6E0-4D2C-97EB-3B99204C2AA4}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14600" activeTab="2" xr2:uid="{59470965-B567-3444-8030-BF238CF640B5}"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14600" firstSheet="2" activeTab="2" xr2:uid="{59470965-B567-3444-8030-BF238CF640B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
     <sheet name="Full" sheetId="2" r:id="rId2"/>
     <sheet name="Events" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,6 +40,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="236">
   <si>
+    <t>Heading</t>
+  </si>
+  <si>
     <t>Non-financial</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t xml:space="preserve">                    Processed foods</t>
   </si>
   <si>
-    <t>Heading</t>
-  </si>
-  <si>
     <t>Financial</t>
   </si>
   <si>
@@ -694,12 +694,21 @@
     <t>Owner</t>
   </si>
   <si>
+    <t>Event</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>sub_stage_id</t>
+  </si>
+  <si>
+    <t>stage_id</t>
+  </si>
+  <si>
     <t>Project ABC</t>
   </si>
   <si>
@@ -709,50 +718,41 @@
     <t>Announced</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Permission Receipt</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>Project DEF</t>
   </si>
   <si>
     <t>Pvt</t>
-  </si>
-  <si>
-    <t>sub_stage_id</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>stage_id</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1105,154 +1105,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448CD77-9B68-954B-9D63-C942874FBE16}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1266,1069 +1264,1069 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBDCED2-B1A1-2643-B089-01F928A957B9}">
   <dimension ref="A1:A212"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A203" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -2346,14 +2344,16 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
   <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.95">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -2361,137 +2361,137 @@
         <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.95">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E2" s="2">
         <v>45056</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="15.95">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2">
         <v>45106</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.95">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E4" s="2">
         <v>45156</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.95">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E5" s="2">
         <v>45100</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="15.95">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E6" s="2">
         <v>45122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.95">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
